--- a/data/Variació PIB per capita.xlsx
+++ b/data/Variació PIB per capita.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\Hackaton-UAB-2025\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C460488B-5A59-4EA2-A967-C9FA891E2053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84842066-CC1D-4665-B6C4-974B4CA0F654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
   <si>
     <t>ANDALUCÍA</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>TIPUS</t>
+  </si>
+  <si>
+    <t>CCAA</t>
+  </si>
+  <si>
+    <t>PROVINCIA</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,49 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_cuadrosWEB" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial Greek"/>
+        <family val="2"/>
+        <charset val="161"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -991,24 +1042,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4748DE0-C0EE-4DD6-85C8-6F7986C7F236}" name="Tabla1367" displayName="Tabla1367" ref="A1:O63" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A1:O63" xr:uid="{C4748DE0-C0EE-4DD6-85C8-6F7986C7F236}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{5E792477-A132-464D-947C-8A4D024AD5FE}" name="AÑO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F8056489-6EE6-43B9-B6A2-4348C1AA9E1B}" name="2009" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{819E0252-382C-449A-BD18-DA5BC293718E}" name="2010" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{56115C4C-51BA-4CEE-8769-C50AF13D732A}" name="2011" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{FBD53ADD-64FE-4554-9330-67C21A14360B}" name="2012" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E2D97471-0D24-49C5-A640-A3A75A12FA16}" name="2013" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{50C079C4-E8D6-45DD-B7C5-627C59409B78}" name="2014" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{96FDD54D-EE27-4C9C-ADF5-F440DAF01EA2}" name="2015" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BDCF9224-2A25-420F-A7E6-C8FB89A4EB93}" name="2016" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{CC4EEA75-CB88-4E4B-8027-690C26660A0C}" name="2017" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{0B71B3DD-D342-4A0A-BB24-EDDC2EFAEE9A}" name="2018" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{A93A45F5-9417-44A1-B41A-625D5965158D}" name="2019" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{250D1498-BAFF-4241-930B-C5808F3C176B}" name="2020" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{271F8A50-409B-45DD-AABF-0244D5B21F8A}" name="2021" dataDxfId="1"/>
-    <tableColumn id="15" xr3:uid="{E99BFB2B-3018-4CF6-96DE-5A5FD0C10D5F}" name="2022" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4748DE0-C0EE-4DD6-85C8-6F7986C7F236}" name="Tabla1367" displayName="Tabla1367" ref="A1:P63" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:P63" xr:uid="{C4748DE0-C0EE-4DD6-85C8-6F7986C7F236}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{5E792477-A132-464D-947C-8A4D024AD5FE}" name="AÑO" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{79403A86-B49A-4B8E-B297-51460B06A97D}" name="TIPUS" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F8056489-6EE6-43B9-B6A2-4348C1AA9E1B}" name="2009" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{819E0252-382C-449A-BD18-DA5BC293718E}" name="2010" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{56115C4C-51BA-4CEE-8769-C50AF13D732A}" name="2011" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FBD53ADD-64FE-4554-9330-67C21A14360B}" name="2012" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E2D97471-0D24-49C5-A640-A3A75A12FA16}" name="2013" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{50C079C4-E8D6-45DD-B7C5-627C59409B78}" name="2014" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{96FDD54D-EE27-4C9C-ADF5-F440DAF01EA2}" name="2015" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{BDCF9224-2A25-420F-A7E6-C8FB89A4EB93}" name="2016" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{CC4EEA75-CB88-4E4B-8027-690C26660A0C}" name="2017" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{0B71B3DD-D342-4A0A-BB24-EDDC2EFAEE9A}" name="2018" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{A93A45F5-9417-44A1-B41A-625D5965158D}" name="2019" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{250D1498-BAFF-4241-930B-C5808F3C176B}" name="2020" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{271F8A50-409B-45DD-AABF-0244D5B21F8A}" name="2021" dataDxfId="2"/>
+    <tableColumn id="15" xr3:uid="{E99BFB2B-3018-4CF6-96DE-5A5FD0C10D5F}" name="2022" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1301,2972 +1353,3161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD9D96B-3E27-44F5-A8C9-1D8102BA3818}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3">
         <v>17685</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>17567</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>17299</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>16597</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>16381</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>16600</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>17458</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>17865</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>18691</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>19291</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>19744</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>17772</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="3">
         <v>19591</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
         <v>21532</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5">
         <v>19151</v>
       </c>
-      <c r="C3" s="5">
+      <c r="D3" s="5">
         <v>18616</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>17294</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>17031</v>
       </c>
-      <c r="F3" s="5">
+      <c r="G3" s="5">
         <v>16759</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>17515</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>18724</v>
       </c>
-      <c r="I3" s="5">
+      <c r="J3" s="5">
         <v>20196</v>
       </c>
-      <c r="J3" s="5">
+      <c r="K3" s="5">
         <v>21467</v>
       </c>
-      <c r="K3" s="5">
+      <c r="L3" s="5">
         <v>21567</v>
       </c>
-      <c r="L3" s="5">
+      <c r="M3" s="5">
         <v>22268</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>20335</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>20292</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>22078</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5">
         <v>16899</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="5">
         <v>17054</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>16881</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>16196</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>15843</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>15703</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>16255</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>16784</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>17584</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>18079</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>18767</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>16418</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>18313</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>20520</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="5">
         <v>16816</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="5">
         <v>16641</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>16403</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>15479</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>15710</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>15846</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>16862</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>17197</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>17967</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>18275</v>
       </c>
-      <c r="L5" s="5">
+      <c r="M5" s="5">
         <v>18225</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>16851</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>18710</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>20022</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="5">
         <v>16639</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="5">
         <v>16431</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>16347</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>15971</v>
       </c>
-      <c r="F6" s="5">
+      <c r="G6" s="5">
         <v>15877</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>16429</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>17320</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>17368</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>17846</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>18353</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>19091</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>17310</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>18776</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>20623</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="5">
         <v>17028</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="5">
         <v>17351</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>17882</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>17373</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>16185</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>16154</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>17177</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>17877</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>19318</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>20380</v>
       </c>
-      <c r="L7" s="5">
+      <c r="M7" s="5">
         <v>20329</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>17800</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>20086</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>23916</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5">
         <v>16347</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="5">
         <v>16388</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>16349</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>14677</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>15780</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>15125</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>17128</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>16916</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>17382</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>18320</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>17840</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>17140</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>18955</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>18855</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5">
         <v>17762</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="5">
         <v>17608</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>17160</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>16257</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>16016</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>16398</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>17077</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>17379</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>18189</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>18922</v>
       </c>
-      <c r="L9" s="5">
+      <c r="M9" s="5">
         <v>19477</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>16913</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>19145</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>21471</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5">
         <v>19124</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="5">
         <v>18891</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="5">
         <v>18686</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5">
         <v>18194</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>17669</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>18032</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>18594</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>18947</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>19774</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>20429</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>21043</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>19208</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>21346</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>23262</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="3">
         <v>25150</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>25375</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>25015</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>24008</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>24232</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>24557</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>25185</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>26243</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>27357</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>28281</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>29043</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>27003</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>29144</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>32707</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="5">
         <v>25509</v>
       </c>
-      <c r="C12" s="5">
+      <c r="D12" s="5">
         <v>26084</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="5">
         <v>25978</v>
       </c>
-      <c r="E12" s="5">
+      <c r="F12" s="5">
         <v>24813</v>
       </c>
-      <c r="F12" s="5">
+      <c r="G12" s="5">
         <v>25616</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>25476</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>25867</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>28169</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>28467</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>28749</v>
       </c>
-      <c r="L12" s="5">
+      <c r="M12" s="5">
         <v>29643</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>28385</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>30234</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>33751</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5">
         <v>24210</v>
       </c>
-      <c r="C13" s="5">
+      <c r="D13" s="5">
         <v>24291</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="5">
         <v>24009</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>23643</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>23994</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>24326</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>24012</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>23993</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>23935</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>25241</v>
       </c>
-      <c r="L13" s="5">
+      <c r="M13" s="5">
         <v>25570</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>23292</v>
       </c>
-      <c r="N13" s="5">
+      <c r="O13" s="5">
         <v>26341</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>30259</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="5">
         <v>25207</v>
       </c>
-      <c r="C14" s="5">
+      <c r="D14" s="5">
         <v>25371</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="5">
         <v>24939</v>
       </c>
-      <c r="E14" s="5">
+      <c r="F14" s="5">
         <v>23874</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>23946</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>24378</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>25194</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>26118</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>27582</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>28597</v>
       </c>
-      <c r="L14" s="5">
+      <c r="M14" s="5">
         <v>29386</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>27197</v>
       </c>
-      <c r="N14" s="5">
+      <c r="O14" s="5">
         <v>29279</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>32803</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="3">
         <v>20778</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>20992</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>20706</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>19867</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>19475</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>19588</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>20497</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>20913</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>21897</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22651</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>23220</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>21069</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>23446</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>26552</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3">
         <v>24832</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>24638</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>24324</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>23810</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>23719</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>24454</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>25732</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>26922</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>28001</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>28906</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>29458</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>22611</v>
       </c>
-      <c r="N16" s="3">
+      <c r="O16" s="3">
         <v>25807</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>31029</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3">
         <v>19421</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>19355</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>19099</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>18317</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>18160</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>18268</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18881</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19450</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20296</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>20853</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21159</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17239</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19021</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22218</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5">
         <v>19219</v>
       </c>
-      <c r="C18" s="5">
+      <c r="D18" s="5">
         <v>18796</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
         <v>18561</v>
       </c>
-      <c r="E18" s="5">
+      <c r="F18" s="5">
         <v>17743</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>17832</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>17876</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>18321</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>19181</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>19945</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>20595</v>
       </c>
-      <c r="L18" s="5">
+      <c r="M18" s="5">
         <v>20864</v>
       </c>
-      <c r="M18" s="5">
+      <c r="N18" s="5">
         <v>16895</v>
       </c>
-      <c r="N18" s="5">
+      <c r="O18" s="5">
         <v>18912</v>
       </c>
-      <c r="O18" s="5">
+      <c r="P18" s="5">
         <v>22337</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="5">
         <v>19641</v>
       </c>
-      <c r="C19" s="5">
+      <c r="D19" s="5">
         <v>19964</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
         <v>19688</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>18945</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>18519</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>18696</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>19494</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>19745</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>20681</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>21134</v>
       </c>
-      <c r="L19" s="5">
+      <c r="M19" s="5">
         <v>21478</v>
       </c>
-      <c r="M19" s="5">
+      <c r="N19" s="5">
         <v>17611</v>
       </c>
-      <c r="N19" s="5">
+      <c r="O19" s="5">
         <v>19138</v>
       </c>
-      <c r="O19" s="5">
+      <c r="P19" s="5">
         <v>22091</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="3">
         <v>21834</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>21850</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>21435</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20691</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20299</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20747</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>21329</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>22072</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>22922</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23818</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24515</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>22279</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24303</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>26512</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="3">
         <v>21374</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>21487</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>21378</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>20823</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20474</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20694</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>21600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>22369</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23076</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24216</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>24849</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22934</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25020</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>27509</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="5">
         <v>17999</v>
       </c>
-      <c r="C22" s="5">
+      <c r="D22" s="5">
         <v>17998</v>
       </c>
-      <c r="D22" s="5">
+      <c r="E22" s="5">
         <v>18087</v>
       </c>
-      <c r="E22" s="5">
+      <c r="F22" s="5">
         <v>17895</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>17565</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>17707</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>18220</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>18459</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>19225</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>20036</v>
       </c>
-      <c r="L22" s="5">
+      <c r="M22" s="5">
         <v>20760</v>
       </c>
-      <c r="M22" s="5">
+      <c r="N22" s="5">
         <v>19336</v>
       </c>
-      <c r="N22" s="5">
+      <c r="O22" s="5">
         <v>20409</v>
       </c>
-      <c r="O22" s="5">
+      <c r="P22" s="5">
         <v>21777</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5">
         <v>25414</v>
       </c>
-      <c r="C23" s="5">
+      <c r="D23" s="5">
         <v>25575</v>
       </c>
-      <c r="D23" s="5">
+      <c r="E23" s="5">
         <v>25762</v>
       </c>
-      <c r="E23" s="5">
+      <c r="F23" s="5">
         <v>25468</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>24696</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>24708</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>25585</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>26648</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>28147</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>29444</v>
       </c>
-      <c r="L23" s="5">
+      <c r="M23" s="5">
         <v>29798</v>
       </c>
-      <c r="M23" s="5">
+      <c r="N23" s="5">
         <v>26984</v>
       </c>
-      <c r="N23" s="5">
+      <c r="O23" s="5">
         <v>28841</v>
       </c>
-      <c r="O23" s="5">
+      <c r="P23" s="5">
         <v>30075</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="5">
         <v>20015</v>
       </c>
-      <c r="C24" s="5">
+      <c r="D24" s="5">
         <v>19926</v>
       </c>
-      <c r="D24" s="5">
+      <c r="E24" s="5">
         <v>19610</v>
       </c>
-      <c r="E24" s="5">
+      <c r="F24" s="5">
         <v>19154</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>18654</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>18774</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>19456</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>19604</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>20400</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>21175</v>
       </c>
-      <c r="L24" s="5">
+      <c r="M24" s="5">
         <v>21919</v>
       </c>
-      <c r="M24" s="5">
+      <c r="N24" s="5">
         <v>20431</v>
       </c>
-      <c r="N24" s="5">
+      <c r="O24" s="5">
         <v>23214</v>
       </c>
-      <c r="O24" s="5">
+      <c r="P24" s="5">
         <v>26186</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5">
         <v>23740</v>
       </c>
-      <c r="C25" s="5">
+      <c r="D25" s="5">
         <v>23498</v>
       </c>
-      <c r="D25" s="5">
+      <c r="E25" s="5">
         <v>23715</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F25" s="5">
         <v>22517</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G25" s="5">
         <v>22465</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>22414</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>23857</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>25476</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>25054</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>27101</v>
       </c>
-      <c r="L25" s="5">
+      <c r="M25" s="5">
         <v>27505</v>
       </c>
-      <c r="M25" s="5">
+      <c r="N25" s="5">
         <v>25293</v>
       </c>
-      <c r="N25" s="5">
+      <c r="O25" s="5">
         <v>27331</v>
       </c>
-      <c r="O25" s="5">
+      <c r="P25" s="5">
         <v>29882</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="5">
         <v>19105</v>
       </c>
-      <c r="C26" s="5">
+      <c r="D26" s="5">
         <v>18370</v>
       </c>
-      <c r="D26" s="5">
+      <c r="E26" s="5">
         <v>18285</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5">
         <v>17716</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>17326</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>17553</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>18417</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>19332</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>20030</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>20735</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M26" s="5">
         <v>21588</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N26" s="5">
         <v>20029</v>
       </c>
-      <c r="N26" s="5">
+      <c r="O26" s="5">
         <v>22643</v>
       </c>
-      <c r="O26" s="5">
+      <c r="P26" s="5">
         <v>26475</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5">
         <v>21250</v>
       </c>
-      <c r="C27" s="5">
+      <c r="D27" s="5">
         <v>21474</v>
       </c>
-      <c r="D27" s="5">
+      <c r="E27" s="5">
         <v>21034</v>
       </c>
-      <c r="E27" s="5">
+      <c r="F27" s="5">
         <v>20171</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>19974</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>20527</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>21609</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <v>21738</v>
       </c>
-      <c r="J27" s="5">
+      <c r="K27" s="5">
         <v>21163</v>
       </c>
-      <c r="K27" s="5">
+      <c r="L27" s="5">
         <v>22012</v>
       </c>
-      <c r="L27" s="5">
+      <c r="M27" s="5">
         <v>22690</v>
       </c>
-      <c r="M27" s="5">
+      <c r="N27" s="5">
         <v>20668</v>
       </c>
-      <c r="N27" s="5">
+      <c r="O27" s="5">
         <v>23743</v>
       </c>
-      <c r="O27" s="5">
+      <c r="P27" s="5">
         <v>26151</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="5">
         <v>22193</v>
       </c>
-      <c r="C28" s="5">
+      <c r="D28" s="5">
         <v>23036</v>
       </c>
-      <c r="D28" s="5">
+      <c r="E28" s="5">
         <v>23012</v>
       </c>
-      <c r="E28" s="5">
+      <c r="F28" s="5">
         <v>21833</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>22241</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>22749</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>23763</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <v>24056</v>
       </c>
-      <c r="J28" s="5">
+      <c r="K28" s="5">
         <v>24746</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>28019</v>
       </c>
-      <c r="L28" s="5">
+      <c r="M28" s="5">
         <v>28421</v>
       </c>
-      <c r="M28" s="5">
+      <c r="N28" s="5">
         <v>25821</v>
       </c>
-      <c r="N28" s="5">
+      <c r="O28" s="5">
         <v>28912</v>
       </c>
-      <c r="O28" s="5">
+      <c r="P28" s="5">
         <v>30563</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5">
         <v>22830</v>
       </c>
-      <c r="C29" s="5">
+      <c r="D29" s="5">
         <v>23521</v>
       </c>
-      <c r="D29" s="5">
+      <c r="E29" s="5">
         <v>23110</v>
       </c>
-      <c r="E29" s="5">
+      <c r="F29" s="5">
         <v>22355</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>22240</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>22706</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>23737</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>25043</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>26362</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>27580</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>28079</v>
       </c>
-      <c r="M29" s="5">
+      <c r="N29" s="5">
         <v>26067</v>
       </c>
-      <c r="N29" s="5">
+      <c r="O29" s="5">
         <v>26940</v>
       </c>
-      <c r="O29" s="5">
+      <c r="P29" s="5">
         <v>29347</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="5">
         <v>17803</v>
       </c>
-      <c r="C30" s="5">
+      <c r="D30" s="5">
         <v>18235</v>
       </c>
-      <c r="D30" s="5">
+      <c r="E30" s="5">
         <v>18608</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5">
         <v>18651</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>18112</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>18132</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>18984</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <v>19366</v>
       </c>
-      <c r="J30" s="5">
+      <c r="K30" s="5">
         <v>18454</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>19328</v>
       </c>
-      <c r="L30" s="5">
+      <c r="M30" s="5">
         <v>20270</v>
       </c>
-      <c r="M30" s="5">
+      <c r="N30" s="5">
         <v>18827</v>
       </c>
-      <c r="N30" s="5">
+      <c r="O30" s="5">
         <v>21814</v>
       </c>
-      <c r="O30" s="5">
+      <c r="P30" s="5">
         <v>24759</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3">
         <v>18959</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>18864</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>18569</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>17941</v>
       </c>
-      <c r="F31" s="3">
+      <c r="G31" s="3">
         <v>17720</v>
       </c>
-      <c r="G31" s="3">
+      <c r="H31" s="3">
         <v>17480</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>18499</v>
       </c>
-      <c r="I31" s="3">
+      <c r="J31" s="3">
         <v>19149</v>
       </c>
-      <c r="J31" s="3">
+      <c r="K31" s="3">
         <v>20043</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>20811</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>21264</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>19675</v>
       </c>
-      <c r="N31" s="3">
+      <c r="O31" s="3">
         <v>21515</v>
       </c>
-      <c r="O31" s="3">
+      <c r="P31" s="3">
         <v>24152</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="5">
         <v>18798</v>
       </c>
-      <c r="C32" s="5">
+      <c r="D32" s="5">
         <v>18691</v>
       </c>
-      <c r="D32" s="5">
+      <c r="E32" s="5">
         <v>18283</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5">
         <v>17836</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>17802</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>17691</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>18884</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <v>19370</v>
       </c>
-      <c r="J32" s="5">
+      <c r="K32" s="5">
         <v>20549</v>
       </c>
-      <c r="K32" s="5">
+      <c r="L32" s="5">
         <v>21365</v>
       </c>
-      <c r="L32" s="5">
+      <c r="M32" s="5">
         <v>22251</v>
       </c>
-      <c r="M32" s="5">
+      <c r="N32" s="5">
         <v>20707</v>
       </c>
-      <c r="N32" s="5">
+      <c r="O32" s="5">
         <v>22932</v>
       </c>
-      <c r="O32" s="5">
+      <c r="P32" s="5">
         <v>24618</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5">
         <v>19341</v>
       </c>
-      <c r="C33" s="5">
+      <c r="D33" s="5">
         <v>19611</v>
       </c>
-      <c r="D33" s="5">
+      <c r="E33" s="5">
         <v>19472</v>
       </c>
-      <c r="E33" s="5">
+      <c r="F33" s="5">
         <v>18894</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>18416</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>18087</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>19744</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <v>20435</v>
       </c>
-      <c r="J33" s="5">
+      <c r="K33" s="5">
         <v>21349</v>
       </c>
-      <c r="K33" s="5">
+      <c r="L33" s="5">
         <v>21974</v>
       </c>
-      <c r="L33" s="5">
+      <c r="M33" s="5">
         <v>22264</v>
       </c>
-      <c r="M33" s="5">
+      <c r="N33" s="5">
         <v>20680</v>
       </c>
-      <c r="N33" s="5">
+      <c r="O33" s="5">
         <v>21334</v>
       </c>
-      <c r="O33" s="5">
+      <c r="P33" s="5">
         <v>24936</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5">
         <v>18959</v>
       </c>
-      <c r="C34" s="5">
+      <c r="D34" s="5">
         <v>19587</v>
       </c>
-      <c r="D34" s="5">
+      <c r="E34" s="5">
         <v>19863</v>
       </c>
-      <c r="E34" s="5">
+      <c r="F34" s="5">
         <v>19540</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>19566</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>19360</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>20663</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <v>21288</v>
       </c>
-      <c r="J34" s="5">
+      <c r="K34" s="5">
         <v>22164</v>
       </c>
-      <c r="K34" s="5">
+      <c r="L34" s="5">
         <v>23222</v>
       </c>
-      <c r="L34" s="5">
+      <c r="M34" s="5">
         <v>23241</v>
       </c>
-      <c r="M34" s="5">
+      <c r="N34" s="5">
         <v>21672</v>
       </c>
-      <c r="N34" s="5">
+      <c r="O34" s="5">
         <v>25348</v>
       </c>
-      <c r="O34" s="5">
+      <c r="P34" s="5">
         <v>28559</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="5">
         <v>19591</v>
       </c>
-      <c r="C35" s="5">
+      <c r="D35" s="5">
         <v>19778</v>
       </c>
-      <c r="D35" s="5">
+      <c r="E35" s="5">
         <v>19687</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5">
         <v>18989</v>
       </c>
-      <c r="F35" s="5">
+      <c r="G35" s="5">
         <v>18484</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>17691</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>17794</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <v>18678</v>
       </c>
-      <c r="J35" s="5">
+      <c r="K35" s="5">
         <v>19985</v>
       </c>
-      <c r="K35" s="5">
+      <c r="L35" s="5">
         <v>20914</v>
       </c>
-      <c r="L35" s="5">
+      <c r="M35" s="5">
         <v>21655</v>
       </c>
-      <c r="M35" s="5">
+      <c r="N35" s="5">
         <v>19815</v>
       </c>
-      <c r="N35" s="5">
+      <c r="O35" s="5">
         <v>21774</v>
       </c>
-      <c r="O35" s="5">
+      <c r="P35" s="5">
         <v>24944</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="5">
         <v>18532</v>
       </c>
-      <c r="C36" s="5">
+      <c r="D36" s="5">
         <v>17844</v>
       </c>
-      <c r="D36" s="5">
+      <c r="E36" s="5">
         <v>17254</v>
       </c>
-      <c r="E36" s="5">
+      <c r="F36" s="5">
         <v>16425</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>16325</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>16273</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>16982</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <v>17629</v>
       </c>
-      <c r="J36" s="5">
+      <c r="K36" s="5">
         <v>18217</v>
       </c>
-      <c r="K36" s="5">
+      <c r="L36" s="5">
         <v>18940</v>
       </c>
-      <c r="L36" s="5">
+      <c r="M36" s="5">
         <v>19308</v>
       </c>
-      <c r="M36" s="5">
+      <c r="N36" s="5">
         <v>17804</v>
       </c>
-      <c r="N36" s="5">
+      <c r="O36" s="5">
         <v>19714</v>
       </c>
-      <c r="O36" s="5">
+      <c r="P36" s="5">
         <v>21870</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3">
         <v>26956</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>27096</v>
       </c>
-      <c r="D37" s="3">
+      <c r="E37" s="3">
         <v>26644</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>25937</v>
       </c>
-      <c r="F37" s="3">
+      <c r="G37" s="3">
         <v>25928</v>
       </c>
-      <c r="G37" s="3">
+      <c r="H37" s="3">
         <v>26551</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>27806</v>
       </c>
-      <c r="I37" s="3">
+      <c r="J37" s="3">
         <v>28781</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37" s="3">
         <v>29770</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>30525</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>31300</v>
       </c>
-      <c r="M37" s="3">
+      <c r="N37" s="3">
         <v>27796</v>
       </c>
-      <c r="N37" s="3">
+      <c r="O37" s="3">
         <v>30360</v>
       </c>
-      <c r="O37" s="3">
+      <c r="P37" s="3">
         <v>33043</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="5">
         <v>27016</v>
       </c>
-      <c r="C38" s="5">
+      <c r="D38" s="5">
         <v>27119</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <v>26698</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <v>25961</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>25975</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>26628</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>27849</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <v>28906</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <v>30188</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <v>31073</v>
       </c>
-      <c r="L38" s="5">
+      <c r="M38" s="5">
         <v>31903</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <v>28432</v>
       </c>
-      <c r="N38" s="5">
+      <c r="O38" s="5">
         <v>30588</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <v>33264</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5">
         <v>26596</v>
       </c>
-      <c r="C39" s="5">
+      <c r="D39" s="5">
         <v>26772</v>
       </c>
-      <c r="D39" s="5">
+      <c r="E39" s="5">
         <v>26168</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5">
         <v>25545</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>25202</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>25692</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>26721</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <v>27792</v>
       </c>
-      <c r="J39" s="5">
+      <c r="K39" s="5">
         <v>27361</v>
       </c>
-      <c r="K39" s="5">
+      <c r="L39" s="5">
         <v>27864</v>
       </c>
-      <c r="L39" s="5">
+      <c r="M39" s="5">
         <v>28643</v>
       </c>
-      <c r="M39" s="5">
+      <c r="N39" s="5">
         <v>25331</v>
       </c>
-      <c r="N39" s="5">
+      <c r="O39" s="5">
         <v>29732</v>
       </c>
-      <c r="O39" s="5">
+      <c r="P39" s="5">
         <v>32885</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5">
         <v>27615</v>
       </c>
-      <c r="C40" s="5">
+      <c r="D40" s="5">
         <v>27544</v>
       </c>
-      <c r="D40" s="5">
+      <c r="E40" s="5">
         <v>27231</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5">
         <v>27041</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>27463</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>27801</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>29091</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <v>28316</v>
       </c>
-      <c r="J40" s="5">
+      <c r="K40" s="5">
         <v>27461</v>
       </c>
-      <c r="K40" s="5">
+      <c r="L40" s="5">
         <v>28290</v>
       </c>
-      <c r="L40" s="5">
+      <c r="M40" s="5">
         <v>29386</v>
       </c>
-      <c r="M40" s="5">
+      <c r="N40" s="5">
         <v>26556</v>
       </c>
-      <c r="N40" s="5">
+      <c r="O40" s="5">
         <v>29554</v>
       </c>
-      <c r="O40" s="5">
+      <c r="P40" s="5">
         <v>31064</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="5">
         <v>26518</v>
       </c>
-      <c r="C41" s="5">
+      <c r="D41" s="5">
         <v>26997</v>
       </c>
-      <c r="D41" s="5">
+      <c r="E41" s="5">
         <v>26403</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>25539</v>
       </c>
-      <c r="F41" s="5">
+      <c r="G41" s="5">
         <v>25457</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>26151</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>27832</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <v>29105</v>
       </c>
-      <c r="J41" s="5">
+      <c r="K41" s="5">
         <v>30395</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>30427</v>
       </c>
-      <c r="L41" s="5">
+      <c r="M41" s="5">
         <v>30643</v>
       </c>
-      <c r="M41" s="5">
+      <c r="N41" s="5">
         <v>26378</v>
       </c>
-      <c r="N41" s="5">
+      <c r="O41" s="5">
         <v>29817</v>
       </c>
-      <c r="O41" s="5">
+      <c r="P41" s="5">
         <v>32722</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="3">
         <v>20462</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>20419</v>
       </c>
-      <c r="D42" s="3">
+      <c r="E42" s="3">
         <v>20069</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>19171</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>19137</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>19641</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>20500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21110</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21996</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>22723</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23248</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>20980</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>22944</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24732</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5">
         <v>18144</v>
       </c>
-      <c r="C43" s="5">
+      <c r="D43" s="5">
         <v>17881</v>
       </c>
-      <c r="D43" s="5">
+      <c r="E43" s="5">
         <v>17210</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>16425</v>
       </c>
-      <c r="F43" s="5">
+      <c r="G43" s="5">
         <v>16346</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>16875</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>17635</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <v>18474</v>
       </c>
-      <c r="J43" s="5">
+      <c r="K43" s="5">
         <v>19327</v>
       </c>
-      <c r="K43" s="5">
+      <c r="L43" s="5">
         <v>19798</v>
       </c>
-      <c r="L43" s="5">
+      <c r="M43" s="5">
         <v>20263</v>
       </c>
-      <c r="M43" s="5">
+      <c r="N43" s="5">
         <v>18339</v>
       </c>
-      <c r="N43" s="5">
+      <c r="O43" s="5">
         <v>20334</v>
       </c>
-      <c r="O43" s="5">
+      <c r="P43" s="5">
         <v>21710</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5">
         <v>22257</v>
       </c>
-      <c r="C44" s="5">
+      <c r="D44" s="5">
         <v>22405</v>
       </c>
-      <c r="D44" s="5">
+      <c r="E44" s="5">
         <v>22764</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>21469</v>
       </c>
-      <c r="F44" s="5">
+      <c r="G44" s="5">
         <v>21644</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>22025</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>23661</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <v>24744</v>
       </c>
-      <c r="J44" s="5">
+      <c r="K44" s="5">
         <v>26989</v>
       </c>
-      <c r="K44" s="5">
+      <c r="L44" s="5">
         <v>27201</v>
       </c>
-      <c r="L44" s="5">
+      <c r="M44" s="5">
         <v>27746</v>
       </c>
-      <c r="M44" s="5">
+      <c r="N44" s="5">
         <v>24497</v>
       </c>
-      <c r="N44" s="5">
+      <c r="O44" s="5">
         <v>26829</v>
       </c>
-      <c r="O44" s="5">
+      <c r="P44" s="5">
         <v>29309</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="5">
         <v>21712</v>
       </c>
-      <c r="C45" s="5">
+      <c r="D45" s="5">
         <v>21786</v>
       </c>
-      <c r="D45" s="5">
+      <c r="E45" s="5">
         <v>21506</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>20629</v>
       </c>
-      <c r="F45" s="5">
+      <c r="G45" s="5">
         <v>20594</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>21115</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>21862</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <v>22198</v>
       </c>
-      <c r="J45" s="5">
+      <c r="K45" s="5">
         <v>22795</v>
       </c>
-      <c r="K45" s="5">
+      <c r="L45" s="5">
         <v>23825</v>
       </c>
-      <c r="L45" s="5">
+      <c r="M45" s="5">
         <v>24397</v>
       </c>
-      <c r="M45" s="5">
+      <c r="N45" s="5">
         <v>22104</v>
       </c>
-      <c r="N45" s="5">
+      <c r="O45" s="5">
         <v>23967</v>
       </c>
-      <c r="O45" s="5">
+      <c r="P45" s="5">
         <v>25910</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="3">
         <v>16744</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>16950</v>
       </c>
-      <c r="D46" s="3">
+      <c r="E46" s="3">
         <v>16560</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15953</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16028</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16053</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16993</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>17616</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18761</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19368</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19863</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>18351</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>20363</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>22244</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="5">
         <v>16896</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
         <v>16891</v>
       </c>
-      <c r="D47" s="5">
+      <c r="E47" s="5">
         <v>16545</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>15662</v>
       </c>
-      <c r="F47" s="5">
+      <c r="G47" s="5">
         <v>15742</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <v>15710</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>16731</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>17297</v>
       </c>
-      <c r="J47" s="5">
+      <c r="K47" s="5">
         <v>18349</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>18706</v>
       </c>
-      <c r="L47" s="5">
+      <c r="M47" s="5">
         <v>19102</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5">
         <v>17844</v>
       </c>
-      <c r="N47" s="5">
+      <c r="O47" s="5">
         <v>19029</v>
       </c>
-      <c r="O47" s="5">
+      <c r="P47" s="5">
         <v>20454</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="5">
         <v>16489</v>
       </c>
-      <c r="C48" s="5">
+      <c r="D48" s="5">
         <v>17049</v>
       </c>
-      <c r="D48" s="5">
+      <c r="E48" s="5">
         <v>16585</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>16442</v>
       </c>
-      <c r="F48" s="5">
+      <c r="G48" s="5">
         <v>16511</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <v>16633</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>17435</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <v>18158</v>
       </c>
-      <c r="J48" s="5">
+      <c r="K48" s="5">
         <v>19461</v>
       </c>
-      <c r="K48" s="5">
+      <c r="L48" s="5">
         <v>20499</v>
       </c>
-      <c r="L48" s="5">
+      <c r="M48" s="5">
         <v>21163</v>
       </c>
-      <c r="M48" s="5">
+      <c r="N48" s="5">
         <v>19222</v>
       </c>
-      <c r="N48" s="5">
+      <c r="O48" s="5">
         <v>22653</v>
       </c>
-      <c r="O48" s="5">
+      <c r="P48" s="5">
         <v>25317</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="3">
         <v>20314</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>20488</v>
       </c>
-      <c r="D49" s="3">
+      <c r="E49" s="3">
         <v>20139</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>19541</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>19636</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>19876</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20934</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>21594</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>22433</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23212</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>23901</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>21864</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>23927</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26571</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="5">
         <v>21594</v>
       </c>
-      <c r="C50" s="5">
+      <c r="D50" s="5">
         <v>21857</v>
       </c>
-      <c r="D50" s="5">
+      <c r="E50" s="5">
         <v>21360</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>20548</v>
       </c>
-      <c r="F50" s="5">
+      <c r="G50" s="5">
         <v>20621</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>20607</v>
       </c>
-      <c r="H50" s="5">
+      <c r="I50" s="5">
         <v>21843</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <v>22710</v>
       </c>
-      <c r="J50" s="5">
+      <c r="K50" s="5">
         <v>23331</v>
       </c>
-      <c r="K50" s="5">
+      <c r="L50" s="5">
         <v>24319</v>
       </c>
-      <c r="L50" s="5">
+      <c r="M50" s="5">
         <v>24840</v>
       </c>
-      <c r="M50" s="5">
+      <c r="N50" s="5">
         <v>22743</v>
       </c>
-      <c r="N50" s="5">
+      <c r="O50" s="5">
         <v>24627</v>
       </c>
-      <c r="O50" s="5">
+      <c r="P50" s="5">
         <v>27795</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="5">
         <v>19179</v>
       </c>
-      <c r="C51" s="5">
+      <c r="D51" s="5">
         <v>19985</v>
       </c>
-      <c r="D51" s="5">
+      <c r="E51" s="5">
         <v>20083</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>19899</v>
       </c>
-      <c r="F51" s="5">
+      <c r="G51" s="5">
         <v>20190</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>20939</v>
       </c>
-      <c r="H51" s="5">
+      <c r="I51" s="5">
         <v>22265</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <v>22354</v>
       </c>
-      <c r="J51" s="5">
+      <c r="K51" s="5">
         <v>22468</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>23579</v>
       </c>
-      <c r="L51" s="5">
+      <c r="M51" s="5">
         <v>23836</v>
       </c>
-      <c r="M51" s="5">
+      <c r="N51" s="5">
         <v>21271</v>
       </c>
-      <c r="N51" s="5">
+      <c r="O51" s="5">
         <v>23529</v>
       </c>
-      <c r="O51" s="5">
+      <c r="P51" s="5">
         <v>26414</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" s="5">
         <v>17897</v>
       </c>
-      <c r="C52" s="5">
+      <c r="D52" s="5">
         <v>18515</v>
       </c>
-      <c r="D52" s="5">
+      <c r="E52" s="5">
         <v>18766</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>18595</v>
       </c>
-      <c r="F52" s="5">
+      <c r="G52" s="5">
         <v>18417</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>18508</v>
       </c>
-      <c r="H52" s="5">
+      <c r="I52" s="5">
         <v>19284</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <v>20206</v>
       </c>
-      <c r="J52" s="5">
+      <c r="K52" s="5">
         <v>21035</v>
       </c>
-      <c r="K52" s="5">
+      <c r="L52" s="5">
         <v>22030</v>
       </c>
-      <c r="L52" s="5">
+      <c r="M52" s="5">
         <v>23276</v>
       </c>
-      <c r="M52" s="5">
+      <c r="N52" s="5">
         <v>21005</v>
       </c>
-      <c r="N52" s="5">
+      <c r="O52" s="5">
         <v>23878</v>
       </c>
-      <c r="O52" s="5">
+      <c r="P52" s="5">
         <v>26682</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="5">
         <v>20048</v>
       </c>
-      <c r="C53" s="5">
+      <c r="D53" s="5">
         <v>19720</v>
       </c>
-      <c r="D53" s="5">
+      <c r="E53" s="5">
         <v>19172</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>18530</v>
       </c>
-      <c r="F53" s="5">
+      <c r="G53" s="5">
         <v>18673</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>19086</v>
       </c>
-      <c r="H53" s="5">
+      <c r="I53" s="5">
         <v>19932</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <v>20460</v>
       </c>
-      <c r="J53" s="5">
+      <c r="K53" s="5">
         <v>21815</v>
       </c>
-      <c r="K53" s="5">
+      <c r="L53" s="5">
         <v>22157</v>
       </c>
-      <c r="L53" s="5">
+      <c r="M53" s="5">
         <v>23013</v>
       </c>
-      <c r="M53" s="5">
+      <c r="N53" s="5">
         <v>21304</v>
       </c>
-      <c r="N53" s="5">
+      <c r="O53" s="5">
         <v>23251</v>
       </c>
-      <c r="O53" s="5">
+      <c r="P53" s="5">
         <v>25137</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3">
         <v>31364</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>31059</v>
       </c>
-      <c r="D54" s="3">
+      <c r="E54" s="3">
         <v>31147</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30566</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30264</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30776</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32275</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33350</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>34592</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35601</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36613</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32853</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35703</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39278</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="3">
         <v>19383</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>19479</v>
       </c>
-      <c r="D55" s="3">
+      <c r="E55" s="3">
         <v>18957</v>
       </c>
-      <c r="E55" s="3">
+      <c r="F55" s="3">
         <v>18444</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>18502</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>18606</v>
       </c>
-      <c r="H55" s="3">
+      <c r="I55" s="3">
         <v>19901</v>
       </c>
-      <c r="I55" s="3">
+      <c r="J55" s="3">
         <v>20402</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>21128</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>21393</v>
       </c>
-      <c r="L55" s="3">
+      <c r="M55" s="3">
         <v>22015</v>
       </c>
-      <c r="M55" s="3">
+      <c r="N55" s="3">
         <v>20108</v>
       </c>
-      <c r="N55" s="3">
+      <c r="O55" s="3">
         <v>22087</v>
       </c>
-      <c r="O55" s="3">
+      <c r="P55" s="3">
         <v>24281</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" s="3">
         <v>28569</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>28487</v>
       </c>
-      <c r="D56" s="3">
+      <c r="E56" s="3">
         <v>28279</v>
       </c>
-      <c r="E56" s="3">
+      <c r="F56" s="3">
         <v>27184</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>27213</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>27704</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>28761</v>
       </c>
-      <c r="I56" s="3">
+      <c r="J56" s="3">
         <v>29556</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>30631</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>31190</v>
       </c>
-      <c r="L56" s="3">
+      <c r="M56" s="3">
         <v>32136</v>
       </c>
-      <c r="M56" s="3">
+      <c r="N56" s="3">
         <v>28987</v>
       </c>
-      <c r="N56" s="3">
+      <c r="O56" s="3">
         <v>31486</v>
       </c>
-      <c r="O56" s="3">
+      <c r="P56" s="3">
         <v>34726</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="3">
         <v>29215</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>29538</v>
       </c>
-      <c r="D57" s="3">
+      <c r="E57" s="3">
         <v>29261</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>28589</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>28277</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>28843</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29962</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30833</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31891</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32835</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>33590</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>30115</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32898</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="5">
         <v>34115</v>
       </c>
-      <c r="C58" s="5">
+      <c r="D58" s="5">
         <v>33818</v>
       </c>
-      <c r="D58" s="5">
+      <c r="E58" s="5">
         <v>33921</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5">
         <v>33082</v>
       </c>
-      <c r="F58" s="5">
+      <c r="G58" s="5">
         <v>33371</v>
       </c>
-      <c r="G58" s="5">
+      <c r="H58" s="5">
         <v>34287</v>
       </c>
-      <c r="H58" s="5">
+      <c r="I58" s="5">
         <v>35074</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <v>36915</v>
       </c>
-      <c r="J58" s="5">
+      <c r="K58" s="5">
         <v>37808</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>38711</v>
       </c>
-      <c r="L58" s="5">
+      <c r="M58" s="5">
         <v>38631</v>
       </c>
-      <c r="M58" s="5">
+      <c r="N58" s="5">
         <v>35283</v>
       </c>
-      <c r="N58" s="5">
+      <c r="O58" s="5">
         <v>35924</v>
       </c>
-      <c r="O58" s="5">
+      <c r="P58" s="5">
         <v>38342</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="5">
         <v>27922</v>
       </c>
-      <c r="C59" s="5">
+      <c r="D59" s="5">
         <v>28342</v>
       </c>
-      <c r="D59" s="5">
+      <c r="E59" s="5">
         <v>27849</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5">
         <v>27224</v>
       </c>
-      <c r="F59" s="5">
+      <c r="G59" s="5">
         <v>26850</v>
       </c>
-      <c r="G59" s="5">
+      <c r="H59" s="5">
         <v>27560</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>28852</v>
       </c>
-      <c r="I59" s="5">
+      <c r="J59" s="5">
         <v>29532</v>
       </c>
-      <c r="J59" s="5">
+      <c r="K59" s="5">
         <v>30047</v>
       </c>
-      <c r="K59" s="5">
+      <c r="L59" s="5">
         <v>31099</v>
       </c>
-      <c r="L59" s="5">
+      <c r="M59" s="5">
         <v>31944</v>
       </c>
-      <c r="M59" s="5">
+      <c r="N59" s="5">
         <v>28583</v>
       </c>
-      <c r="N59" s="5">
+      <c r="O59" s="5">
         <v>31265</v>
       </c>
-      <c r="O59" s="5">
+      <c r="P59" s="5">
         <v>35663</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="5">
         <v>29132</v>
       </c>
-      <c r="C60" s="5">
+      <c r="D60" s="5">
         <v>29564</v>
       </c>
-      <c r="D60" s="5">
+      <c r="E60" s="5">
         <v>29458</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>28781</v>
       </c>
-      <c r="F60" s="5">
+      <c r="G60" s="5">
         <v>28283</v>
       </c>
-      <c r="G60" s="5">
+      <c r="H60" s="5">
         <v>28443</v>
       </c>
-      <c r="H60" s="5">
+      <c r="I60" s="5">
         <v>29424</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <v>30149</v>
       </c>
-      <c r="J60" s="5">
+      <c r="K60" s="5">
         <v>32136</v>
       </c>
-      <c r="K60" s="5">
+      <c r="L60" s="5">
         <v>32913</v>
       </c>
-      <c r="L60" s="5">
+      <c r="M60" s="5">
         <v>33900</v>
       </c>
-      <c r="M60" s="5">
+      <c r="N60" s="5">
         <v>30179</v>
       </c>
-      <c r="N60" s="5">
+      <c r="O60" s="5">
         <v>34099</v>
       </c>
-      <c r="O60" s="5">
+      <c r="P60" s="5">
         <v>36366</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="3">
         <v>24741</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>25035</v>
       </c>
-      <c r="D61" s="3">
+      <c r="E61" s="3">
         <v>24748</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>23961</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>23898</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>24586</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>25594</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>25713</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26585</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27470</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28040</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25654</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27365</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>30431</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="3">
         <v>19077</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>18532</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>17986</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17094</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17229</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17123</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>17757</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18155</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18262</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18923</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19577</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18184</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19661</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>21299</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="3">
         <v>18284</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>17661</v>
       </c>
-      <c r="D63" s="3">
+      <c r="E63" s="3">
         <v>17144</v>
       </c>
-      <c r="E63" s="3">
+      <c r="F63" s="3">
         <v>16035</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G63" s="3">
         <v>15981</v>
       </c>
-      <c r="G63" s="3">
+      <c r="H63" s="3">
         <v>15999</v>
       </c>
-      <c r="H63" s="3">
+      <c r="I63" s="3">
         <v>16506</v>
       </c>
-      <c r="I63" s="3">
+      <c r="J63" s="3">
         <v>16979</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>17051</v>
       </c>
-      <c r="K63" s="3">
+      <c r="L63" s="3">
         <v>17531</v>
       </c>
-      <c r="L63" s="3">
+      <c r="M63" s="3">
         <v>18073</v>
       </c>
-      <c r="M63" s="3">
+      <c r="N63" s="3">
         <v>16776</v>
       </c>
-      <c r="N63" s="3">
+      <c r="O63" s="3">
         <v>17891</v>
       </c>
-      <c r="O63" s="3">
+      <c r="P63" s="3">
         <v>19455</v>
       </c>
     </row>
